--- a/excel/ПриказОПриёмеНаРаботу/Т -1.xlsx
+++ b/excel/ПриказОПриёмеНаРаботу/Т -1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Загрузки\1C\Работа\Печатные формы КЦСОН\РабочийПроект_ПриказыКЦСОН\excel\ПриказОПриёмеНаРаботу\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD2FC4F-4A31-42CA-87DF-EB25EE3BCFD0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951D0E90-3C06-4EAF-B3EC-DFF47AED029D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="1260" windowWidth="18900" windowHeight="10815" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,83 +514,83 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,8 +936,8 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:I38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -954,45 +954,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G3" s="3"/>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="49"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="29">
         <v>301001</v>
       </c>
-      <c r="I4" s="50"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="31">
         <v>74730197</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1000,28 +1000,28 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="45">
+      <c r="F9" s="34">
         <v>220</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="11" t="s">
@@ -1030,10 +1030,10 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="12" t="s">
@@ -1043,129 +1043,129 @@
       <c r="G13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41">
         <v>1152</v>
       </c>
-      <c r="I17" s="42"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" s="17" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1173,124 +1173,124 @@
       <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="44">
         <v>14030</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="18">
         <v>54</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="34"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="20"/>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="34"/>
+      <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="48">
         <v>3</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32" t="s">
+      <c r="C35" s="49"/>
+      <c r="D35" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32" t="s">
+      <c r="C36" s="49"/>
+      <c r="D36" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:9" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:9" s="16" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="23" t="s">
         <v>41</v>
       </c>
@@ -1307,11 +1307,11 @@
         <v>43</v>
       </c>
       <c r="E42" s="22"/>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
     </row>
     <row r="43" spans="1:9" s="17" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="15" t="s">
@@ -1320,11 +1320,11 @@
       <c r="E43" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:9" s="16" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,37 +1344,6 @@
     <row r="47" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="C38:I38"/>
     <mergeCell ref="C40:D40"/>
@@ -1383,6 +1352,37 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
